--- a/Juan José Arreola Gonzalez/CU_JuanJoseAG_070223.xlsx
+++ b/Juan José Arreola Gonzalez/CU_JuanJoseAG_070223.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan AG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\Downloads\5S6A-ING.DE-SOFTWARE-main\Juan José Arreola Gonzalez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BAC07C-6E37-4D76-8111-11AF10963C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD49D455-459C-4E81-A714-745B3BE47A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CU_07" sheetId="2" r:id="rId1"/>
@@ -26,42 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Fabian</author>
-  </authors>
-  <commentList>
-    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fabian:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Ingresar el diagrama del caso de uso utilizado</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Caso de uso</t>
   </si>
@@ -171,10 +137,6 @@
     <t>1a. Si el producto no esta en almacén se regresara un mensaje de adverencia donde indique que no se encuentra el producto.</t>
   </si>
   <si>
-    <t>1a. Si falta de ingresar un campo en el registro se va a mostrar un mensaje informando el campo faltante.
-2a. Si el código de producto no se encuentra se mostrara un mensaje con una advertencia de código desconocido.</t>
-  </si>
-  <si>
     <t>1a. Si no se registran entradas el sistema marcara el campo como "Sin sotck"
 2a. Si las existencias se agotan se notificara en un mensaje flotante.
 3a. Para modificar las existencias se debe tener permiso del administrador.</t>
@@ -186,38 +148,45 @@
     <t>Si el encargado de almacén no registra las entradas y sallidas del producto, estas no se veran reflejadas en las existencias del sistema.</t>
   </si>
   <si>
-    <t>Para agregar los productos al sistema el encargado de almacén debe:
-1. Pulsar el boton de crear para agregar los productos.
+    <t>CU-07</t>
+  </si>
+  <si>
+    <t>CU-08</t>
+  </si>
+  <si>
+    <t>CU-09</t>
+  </si>
+  <si>
+    <t>Almecenista y administrador</t>
+  </si>
+  <si>
+    <t>Almacenista y Administrador</t>
+  </si>
+  <si>
+    <t>Interfaz</t>
+  </si>
+  <si>
+    <t>Diagrama de secuencia</t>
+  </si>
+  <si>
+    <t>1. Pulsar el boton de crear para agregar los productos.
 2. Se deben de ingresar todos los datos que se piden.
-Para editar los productos del sistema se debe:
-1. Pulsar el botón de editar para editar los productos.
-2. Se pedira que se ingrese el código del producto.
-3. Al ingresar el código se mostrará toda la información del producto la cual se podrá editar.
-Para borrar productos del sistema se debe:
-1. Pulsar el botón de eliminar.
-2. Ingresar el código de producto a eliminar.</t>
-  </si>
-  <si>
-    <t>CU-07</t>
-  </si>
-  <si>
-    <t>CU-08</t>
-  </si>
-  <si>
-    <t>CU-09</t>
-  </si>
-  <si>
-    <t>Almecenista y administrador</t>
-  </si>
-  <si>
-    <t>Almacenista y Administrador</t>
+3. Pulsar el botón de editar para editar los productos.
+4. Se pedira que se ingrese el código del producto.
+5. Al ingresar el código se mostrará toda la información del producto la cual se podrá editar.
+6. Pulsar el botón de eliminar.
+7. Ingresar el código de producto a eliminar.</t>
+  </si>
+  <si>
+    <t>2a. Si falta de ingresar un campo en el registro se va a mostrar un mensaje informando el campo faltante.
+4a. Si el código de producto no se encuentra se mostrara un mensaje con una advertencia de código desconocido.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,26 +216,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +265,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -540,13 +502,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -567,11 +529,85 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,90 +617,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -708,6 +660,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,23 +746,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>198294</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>300689</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16649</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>340650</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>102175</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15736</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>41128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="8" name="Imagen 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0EA850F-E22B-B57C-8D86-0E1308E985D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDFAAB7-55FB-03FD-14C1-EA09110D1E15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,16 +770,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="27774" t="34444" r="29489" b="689"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15559521" y="4993916"/>
-          <a:ext cx="5112674" cy="3646123"/>
+          <a:off x="8032889" y="10530839"/>
+          <a:ext cx="2925167" cy="3801055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -835,23 +795,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9812</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>176645</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>729342</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>122242</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>8017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="10" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E12BACC-279B-ED6E-AB9A-324D239E3BDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79113FE-F5C1-C1C4-58C7-5F1270B01776}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -867,96 +827,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8980630" y="4869872"/>
-          <a:ext cx="6428221" cy="3790234"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>470187</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190123</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>394800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>63220</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2A09A1-F8E6-C33F-1EE7-354E865750FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15121369" y="8727987"/>
-          <a:ext cx="3474841" cy="3804324"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>384462</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>188606</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>341168</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>137714</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0CBCE5-40A6-CE86-B786-96641293AD78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10775371" y="8726470"/>
-          <a:ext cx="4216978" cy="5594835"/>
+          <a:off x="729342" y="14412686"/>
+          <a:ext cx="6585857" cy="4580017"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,23 +893,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>688399</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>540328</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>915754</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95931</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>51253</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682C09CC-7B83-2771-31FC-B86DA23F0122}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FD2E8E-F8FF-2A0E-C744-E36E2D84DA06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,8 +925,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7496174" y="3155374"/>
-          <a:ext cx="6706955" cy="3369932"/>
+          <a:off x="7689273" y="4281054"/>
+          <a:ext cx="3888962" cy="3325091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>434314</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>351187</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>62648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A547D2-9797-DFE8-D51D-8C3FE832059A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="203" t="1" r="37866" b="70229"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7577236" y="471658"/>
+          <a:ext cx="4276838" cy="1843860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1120,22 +1041,71 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>70833</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>115494</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>163036</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>729343</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>696685</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1114F3-2A23-1A3E-AA92-A4C4D2B0DE2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24E5587-9D7C-47B9-5507-4C345014E153}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="70795" b="51790"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8011885" y="544285"/>
+          <a:ext cx="3080658" cy="2939143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247588</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4AFA6BD-0AAB-BA28-9F43-7DD79E813AC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,15 +1114,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7814658" y="190500"/>
-          <a:ext cx="5378661" cy="5001736"/>
+          <a:off x="9013371" y="4376057"/>
+          <a:ext cx="5570703" cy="4762913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1162,14 +1132,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1468,90 +1430,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="2:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-    </row>
-    <row r="6" spans="2:5" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="2:5" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="16">
         <v>44963</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
@@ -1559,35 +1521,35 @@
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+    <row r="10" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="47" t="s">
+    <row r="12" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
@@ -1595,15 +1557,15 @@
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="186" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>8</v>
       </c>
@@ -1611,228 +1573,246 @@
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+    <row r="18" spans="2:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
+    <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="27" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="59" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="27" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-    </row>
-    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="I27" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+    </row>
+    <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B47" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="B47:G47"/>
     <mergeCell ref="B28:G45"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B24:E24"/>
@@ -1849,100 +1829,104 @@
     <mergeCell ref="B27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:E37"/>
+  <dimension ref="B2:H37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="61"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-    </row>
-    <row r="6" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+    </row>
+    <row r="6" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="16">
         <v>44963</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1950,23 +1934,23 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="64" t="s">
+    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="B9" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="47" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
@@ -1974,15 +1958,15 @@
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
+    <row r="12" spans="2:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
@@ -1990,15 +1974,15 @@
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-    </row>
-    <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
@@ -2006,156 +1990,162 @@
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="G16" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="61"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+    <row r="18" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="60" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="59" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="B21:E37"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B18:E18"/>
@@ -2179,83 +2169,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:G38"/>
+  <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-    </row>
-    <row r="6" spans="2:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+    </row>
+    <row r="6" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+    </row>
+    <row r="7" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="19">
         <v>44963</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2263,23 +2259,23 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="64" t="s">
+    <row r="9" spans="2:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="B9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="47" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
@@ -2287,15 +2283,15 @@
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
+    <row r="12" spans="2:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+    </row>
+    <row r="13" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
@@ -2303,216 +2299,223 @@
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="s">
+    <row r="14" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-    </row>
-    <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+    </row>
+    <row r="15" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="I15" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+    </row>
+    <row r="16" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="59" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="B21:G38"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
@@ -2527,6 +2530,8 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="I15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
